--- a/data/PF002.xlsx
+++ b/data/PF002.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="380" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,58 +13,132 @@
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>emailid</t>
-  </si>
-  <si>
-    <t>PassWord</t>
-  </si>
-  <si>
-    <t>fname</t>
-  </si>
-  <si>
-    <t>lname</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>zipcode</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>smuthu@df.com</t>
-  </si>
-  <si>
-    <t>mutc1234</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>selenium</t>
-  </si>
-  <si>
-    <t>9444280084</t>
-  </si>
-  <si>
-    <t>60034</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">addr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">address2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zipcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gpswd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kishore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kumar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harisj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1234567899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medawada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">srpuram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chittoor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPS: Ground ($0.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kishorekumar.y@saggezza.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMEX </t>
+  </si>
+  <si>
+    <t xml:space="preserve">378282246310005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kishorekumar.y@saggezza.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome@2017</t>
   </si>
 </sst>
 </file>
@@ -72,9 +146,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,30 +171,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -128,15 +188,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -160,36 +213,20 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -199,82 +236,170 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T8" activeCellId="0" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.29081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.8622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2857142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="31.4540816326531"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="33.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="smuthu@df.com"/>
+    <hyperlink ref="O2" r:id="rId1" display="Kishorekumar.y@saggezza.com"/>
+    <hyperlink ref="S2" r:id="rId2" display="kishorekumar.y@saggezza.com"/>
+    <hyperlink ref="T2" r:id="rId3" display="Welcome@2017"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -289,18 +414,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -315,18 +440,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
